--- a/Survey-Results/Día Internacional del Sarcoma12 de Julio de 2023.xlsx
+++ b/Survey-Results/Día Internacional del Sarcoma12 de Julio de 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielmalvaez/Library/CloudStorage/GoogleDrive-malvaez.axel@aries.iimas.unam.mx/My Drive/MacBook/Documentos/School/SocialService/AESCULAP/Monthly Webinar Analysis/Survey-Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielmalvaez/Library/CloudStorage/GoogleDrive-malvaez.axel@aries.iimas.unam.mx/My Drive/MacBook/Documentos/School/SocialService/AESCULAP/NLP-Opportunities/Survey-Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D655BD-E711-1244-A185-CCFEC86B34FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AAFAD3-88C0-A043-AA6A-8DC02EE9BBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="500" windowWidth="22660" windowHeight="14560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="500" windowWidth="22660" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all data" sheetId="1" r:id="rId1"/>
@@ -4094,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC211"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AF211"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23941,9 +23941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EBCF07-0B0A-234D-9955-70A86D566CF0}">
   <dimension ref="A1:B210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
